--- a/data/trans_dic/CONS_HIP-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_HIP-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -568,62 +569,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,63%</t>
         </is>
       </c>
     </row>
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,23; 2,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>2,79; 11,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,85; 13,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 4,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,19</t>
+          <t>0,75; 9,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 1,53</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,16; 6,89</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,6; 3,1</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>2,39; 8,09</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>4,38%</t>
         </is>
       </c>
     </row>
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,93; 5,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,67</t>
+          <t>1,75; 6,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,39; 3,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 4,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,88; 6,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>2,72; 8,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,26; 1,69</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,23; 2,45</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,95; 5,3</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,25</t>
+          <t>2,72; 6,75</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>5,69%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>0,55; 2,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,04</t>
+          <t>1,67; 6,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 3,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 3,41</t>
+          <t>3,45; 10,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>1,85; 5,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,35</t>
+          <t>2,16; 5,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,08; 7,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>3,21; 9,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>1,44; 3,48</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,85</t>
+          <t>2,31; 5,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,05; 4,33</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,73</t>
+          <t>3,91; 8,83</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>9,23%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1145,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,07</t>
+          <t>2,83; 5,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,92; 12,16</t>
+          <t>1,19; 6,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,37</t>
+          <t>2,83; 6,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,64</t>
+          <t>5,3; 12,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 4,33</t>
+          <t>3,87; 7,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 8,86</t>
+          <t>6,93; 13,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 8,28</t>
+          <t>4,42; 9,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,3</t>
+          <t>6,86; 14,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,95</t>
+          <t>3,65; 5,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,51; 7,72</t>
+          <t>2,78; 8,45</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 4,99</t>
+          <t>4,18; 7,16</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,37</t>
+          <t>6,82; 12,36</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>15,07%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>12,6%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>21,91%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>15,91%</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,69; 4,21</t>
+          <t>4,94; 9,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,86; 7,13</t>
+          <t>3,95; 8,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,08; 2,2</t>
+          <t>4,5; 10,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,83</t>
+          <t>5,36; 16,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,18; 6,35</t>
+          <t>7,22; 11,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,61; 8,92</t>
+          <t>12,39; 18,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,3</t>
+          <t>9,43; 16,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,99</t>
+          <t>16,6; 29,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,67; 4,25</t>
+          <t>6,65; 9,49</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,9; 6,83</t>
+          <t>8,47; 12,39</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,25</t>
+          <t>7,87; 12,35</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,58</t>
+          <t>11,99; 20,84</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>15,79%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>21,89%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>17,34%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,72</t>
+          <t>5,23; 9,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,45; 10,94</t>
+          <t>5,49; 11,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,52; 4,89</t>
+          <t>3,38; 6,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,29</t>
+          <t>6,19; 22,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,39; 7,99</t>
+          <t>10,99; 16,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,22; 9,28</t>
+          <t>2,98; 16,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,91; 5,79</t>
+          <t>12,81; 19,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,72</t>
+          <t>16,01; 29,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,21; 4,86</t>
+          <t>8,6; 11,92</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,75; 8,36</t>
+          <t>3,81; 13,01</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,5; 4,72</t>
+          <t>8,49; 12,49</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,4</t>
+          <t>13,21; 23,34</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>30,5%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>25,02%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>22,89%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>35,5%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>24,91%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>20,54%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>19,29%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>29,3%</t>
         </is>
       </c>
     </row>
@@ -1564,69 +1565,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,85; 6,44</t>
+          <t>14,03; 20,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,16; 12,65</t>
+          <t>10,01; 18,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,9; 6,39</t>
+          <t>11,35; 18,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,74; 5,27</t>
+          <t>13,12; 27,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,49; 9,17</t>
+          <t>27,34; 34,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,87; 14,66</t>
+          <t>20,84; 29,28</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,79; 11,99</t>
+          <t>19,49; 27,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,93; 6,82</t>
+          <t>28,94; 43,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,24; 7,19</t>
+          <t>22,19; 27,36</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6,74; 12,24</t>
+          <t>17,4; 23,59</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>5,29; 8,37</t>
+          <t>16,78; 21,76</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,53; 5,54</t>
+          <t>23,88; 34,76</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1636,62 +1637,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>8,8%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>21,91%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>9,69%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>11,74%</t>
         </is>
       </c>
     </row>
@@ -1704,510 +1705,1922 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,87; 10,34</t>
+          <t>5,03; 6,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,23; 15,86</t>
+          <t>2,93; 5,6</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,82; 8,79</t>
+          <t>3,9; 5,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,66; 8,35</t>
+          <t>6,84; 10,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>9,71; 15,9</t>
+          <t>9,77; 11,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>16,77; 29,48</t>
+          <t>6,8; 11,16</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,5; 16,88</t>
+          <t>8,62; 10,78</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,04; 10,69</t>
+          <t>12,94; 17,06</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,12; 12,33</t>
+          <t>7,68; 8,93</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>12,37; 20,64</t>
+          <t>5,7; 8,17</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>9,1; 12,19</t>
+          <t>6,64; 7,95</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>6,42; 8,96</t>
+          <t>10,52; 13,05</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>5,44%</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>11,52%</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>8,73%</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>6,21%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>16,76%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>21,89%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>12,91%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>14,43%</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>10,58%</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>17,34%</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>11,17%</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>10,41%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>3,67; 7,37</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>6,44; 21,44</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>6,71; 11,1</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>4,78; 8,23</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>13,82; 20,55</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>16,27; 29,89</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>6,62; 17,33</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>11,85; 16,88</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>8,95; 12,64</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>13,07; 23,21</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>7,63; 13,36</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>8,98; 11,98</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>14,06%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>19,14%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>15,87%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>16,53%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>24,65%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>35,5%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>27,37%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>29,94%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>19,65%</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>29,3%</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>22,87%</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>24,36%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>11,22; 17,6</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>12,89; 26,57</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>12,87; 19,42</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>13,81; 20,03</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>21,23; 28,98</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>27,25; 42,6</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>24,15; 30,36</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>27,0; 33,42</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>17,32; 22,23</t>
-        </is>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>24,37; 35,17</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr">
-        <is>
-          <t>20,56; 25,12</t>
-        </is>
-      </c>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t>22,45; 26,88</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>5,53%</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>8,22%</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>5,23%</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>4,85%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>11,43%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>14,82%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>10,45%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>9,48%</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>8,49%</t>
-        </is>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>11,7%</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>7,99%</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr">
-        <is>
-          <t>7,24%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>4,68; 6,36</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>6,63; 10,18</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>4,58; 6,09</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>4,32; 5,46</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>10,26; 12,7</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>12,84; 17,13</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>9,28; 11,44</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>8,75; 10,27</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>7,76; 9,2</t>
-        </is>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>10,49; 13,26</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>7,31; 8,63</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="inlineStr">
-        <is>
-          <t>6,76; 7,76</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de hipnóticos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16/24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3823</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1306</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3864</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10449</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3218</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>14272</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>4524</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>5838</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1370</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 19607</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>398; 3629</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1807; 7343</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1113</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3403; 24039</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>759; 8224</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>464; 5540</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>94; 1919</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4891; 28959</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2047; 10544</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3011; 10207</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25/34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4527</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>4593</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>832</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5122</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7795</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>6404</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>954</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5457</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>12322</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>10997</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 681</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1146</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1695; 9825</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2149; 8288</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>245; 2080</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1173; 12929</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3984; 14604</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3477; 11363</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>340; 2225</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1265; 13297</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>7679; 20876</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>6826; 16950</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35/44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1141</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11091</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3235</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>8216</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3159</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>12063</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>12239</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>7124</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>4300</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>23154</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>15474</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>15340</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>520; 2457</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5184; 20230</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1125; 8153</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4784; 15047</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1802; 5071</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6956; 18270</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7655; 18047</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4210; 11782</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2768; 6683</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>14659; 33681</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>10168; 21502</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10559; 23824</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45/54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>5794</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>22148</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>13227</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>9652</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>7368</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>37006</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>18152</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>12230</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>13161</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>59154</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>31379</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>21882</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3952; 8036</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7458; 41030</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>8396; 20289</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>6240; 15270</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5345; 10080</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>28045; 55504</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>12373; 25734</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>8199; 17566</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>10116; 16277</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>28655; 87213</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>24095; 41277</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>16169; 29307</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55/64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>8678</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>20136</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>16455</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>8628</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>13178</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>48060</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>32025</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>25390</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>21856</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>68196</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>48480</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>34018</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>6268; 11483</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>13387; 29401</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10557; 24274</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5257; 15895</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>10639; 16427</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>39496; 58549</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>23951; 41834</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>19239; 34172</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>18235; 26013</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>55761; 81501</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>38454; 60390</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>25652; 44566</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65/74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>7543</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>16768</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>9081</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>7962</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>15210</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>39997</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>29793</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>19345</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>22753</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>56765</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>38874</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>27307</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5631; 10030</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>11421; 23835</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>6225; 12853</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>4277; 15250</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>12626; 18392</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>13508; 76692</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>24170; 36143</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>14145; 26027</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>19134; 26520</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>25159; 85942</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>31648; 46565</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>20800; 36753</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 y más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>16524</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>20630</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>20643</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>13209</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>40848</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>58357</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>48481</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>40095</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>57372</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>78987</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>69125</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>53304</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>13515; 20187</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>15143; 28023</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>16636; 27081</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>9052; 18834</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>36622; 45600</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>48611; 68304</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>41282; 57337</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>32689; 48566</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>51112; 63004</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>66931; 90699</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>60132; 77963</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>43447; 63237</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>499</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>736</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>40075</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>94931</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>68475</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>56125</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>80875</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>211054</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>151703</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>112561</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>120950</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>305986</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>220178</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>168685</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>35069; 45637</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>61522; 117628</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>57103; 81286</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>46553; 68541</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>73901; 88670</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>151738; 248858</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>134910; 168628</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>97974; 129208</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>111698; 129766</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>247040; 354117</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>200942; 240811</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>151243; 187615</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_HIP-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_HIP-Edad-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de hipnóticos</t>
+          <t>Consumo de hipnóticos (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1826,7 +1826,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de hipnóticos</t>
+          <t>Consumo de hipnóticos (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_HIP-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_HIP-Edad-trans_dic.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,18</t>
+          <t>0,0; 0,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,3</t>
+          <t>0,0; 7,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,79; 11,35</t>
+          <t>2,88; 11,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,78</t>
+          <t>0,0; 1,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,85; 13,04</t>
+          <t>2,16; 13,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -760,17 +760,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 9,0</t>
+          <t>0,74; 8,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1,53</t>
+          <t>0,07; 0,67</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 6,89</t>
+          <t>1,33; 7,16</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,39; 8,09</t>
+          <t>2,54; 8,44</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,98</t>
+          <t>0,0; 0,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,5</t>
+          <t>0,0; 0,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -880,17 +880,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,75; 6,74</t>
+          <t>1,9; 7,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,33</t>
+          <t>0,32; 2,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,11</t>
+          <t>0,38; 4,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -900,17 +900,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,72; 8,88</t>
+          <t>2,62; 9,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,69</t>
+          <t>0,17; 1,18</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,45</t>
+          <t>0,3; 2,57</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,72; 6,75</t>
+          <t>2,73; 6,48</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,59</t>
+          <t>0,72; 3,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,67; 6,51</t>
+          <t>1,69; 6,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,45; 10,84</t>
+          <t>3,4; 10,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 5,2</t>
+          <t>1,65; 4,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,16; 5,66</t>
+          <t>2,24; 5,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1040,17 +1040,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,21; 9,0</t>
+          <t>3,44; 8,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,48</t>
+          <t>1,48; 3,46</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,32</t>
+          <t>2,44; 5,44</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 8,83</t>
+          <t>3,87; 8,49</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,83; 5,76</t>
+          <t>2,96; 5,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,19; 6,54</t>
+          <t>1,07; 6,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1160,17 +1160,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,3; 12,98</t>
+          <t>5,17; 12,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,87; 7,31</t>
+          <t>3,43; 6,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,93; 13,72</t>
+          <t>6,87; 14,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1180,17 +1180,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,86; 14,7</t>
+          <t>6,9; 14,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,65; 5,87</t>
+          <t>3,58; 5,61</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,78; 8,45</t>
+          <t>2,79; 8,39</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,82; 12,36</t>
+          <t>6,59; 12,28</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1285,12 +1285,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,94; 9,05</t>
+          <t>4,09; 7,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,95; 8,67</t>
+          <t>3,87; 8,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1300,17 +1300,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,36; 16,22</t>
+          <t>4,95; 14,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,22; 11,15</t>
+          <t>7,2; 11,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,39; 18,36</t>
+          <t>12,43; 18,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1320,17 +1320,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,6; 29,49</t>
+          <t>16,49; 29,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,65; 9,49</t>
+          <t>6,21; 8,9</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,47; 12,39</t>
+          <t>8,56; 12,28</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,99; 20,84</t>
+          <t>11,91; 20,58</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1425,12 +1425,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,23; 9,32</t>
+          <t>6,44; 10,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,49; 11,45</t>
+          <t>5,51; 11,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1440,17 +1440,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,19; 22,07</t>
+          <t>6,38; 20,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>10,99; 16,01</t>
+          <t>11,99; 17,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,98; 16,94</t>
+          <t>2,44; 17,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1460,17 +1460,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,01; 29,46</t>
+          <t>16,03; 29,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,6; 11,92</t>
+          <t>10,12; 13,69</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,81; 13,01</t>
+          <t>3,2; 13,17</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>13,21; 23,34</t>
+          <t>13,28; 23,24</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>30,5%</t>
+          <t>29,86%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>24,91%</t>
+          <t>24,66%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1565,12 +1565,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,03; 20,95</t>
+          <t>13,64; 20,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,01; 18,52</t>
+          <t>9,71; 18,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1580,17 +1580,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,12; 27,29</t>
+          <t>12,88; 26,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,34; 34,05</t>
+          <t>26,49; 33,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,84; 29,28</t>
+          <t>20,99; 29,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1600,17 +1600,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>28,94; 43,0</t>
+          <t>29,08; 43,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22,19; 27,36</t>
+          <t>22,21; 27,29</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>17,4; 23,59</t>
+          <t>17,64; 23,65</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>23,88; 34,76</t>
+          <t>24,34; 34,78</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
@@ -1705,12 +1705,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,03; 6,55</t>
+          <t>4,8; 6,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,93; 5,6</t>
+          <t>2,99; 5,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1720,17 +1720,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,84; 10,08</t>
+          <t>6,67; 10,05</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>9,77; 11,72</t>
+          <t>9,4; 11,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,8; 11,16</t>
+          <t>6,56; 10,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1740,17 +1740,17 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>12,94; 17,06</t>
+          <t>12,9; 17,11</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,68; 8,93</t>
+          <t>7,33; 8,57</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>5,7; 8,17</t>
+          <t>5,49; 8,06</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>10,52; 13,05</t>
+          <t>10,48; 13,23</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>237</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>362</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -2084,12 +2084,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0; 1370</t>
+          <t>0; 715</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0; 19607</t>
+          <t>0; 18555</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -2099,17 +2099,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1807; 7343</t>
+          <t>1861; 7550</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0; 1113</t>
+          <t>0; 805</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3403; 24039</t>
+          <t>3975; 24726</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -2119,17 +2119,17 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>464; 5540</t>
+          <t>453; 5236</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>94; 1919</t>
+          <t>106; 963</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4891; 28959</t>
+          <t>5584; 30094</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3011; 10207</t>
+          <t>3212; 10655</t>
         </is>
       </c>
     </row>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>627</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>954</t>
+          <t>758</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -2292,12 +2292,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 681</t>
+          <t>0; 555</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1146</t>
+          <t>0; 1085</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -2307,17 +2307,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2149; 8288</t>
+          <t>2339; 8710</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>245; 2080</t>
+          <t>221; 1835</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1173; 12929</t>
+          <t>1187; 13404</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -2327,17 +2327,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3477; 11363</t>
+          <t>3353; 11874</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>340; 2225</t>
+          <t>247; 1692</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1265; 13297</t>
+          <t>1609; 13949</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6826; 16950</t>
+          <t>6854; 16256</t>
         </is>
       </c>
     </row>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1141</t>
+          <t>1670</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3159</t>
+          <t>3181</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4300</t>
+          <t>4851</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>520; 2457</t>
+          <t>749; 3478</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5184; 20230</t>
+          <t>5241; 19805</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2515,17 +2515,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4784; 15047</t>
+          <t>4721; 13934</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1802; 5071</t>
+          <t>1832; 5004</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6956; 18270</t>
+          <t>7235; 18866</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -2535,17 +2535,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4210; 11782</t>
+          <t>4507; 11159</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2768; 6683</t>
+          <t>3185; 7433</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>14659; 33681</t>
+          <t>15479; 34460</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>10559; 23824</t>
+          <t>10454; 22912</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5794</t>
+          <t>6052</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7368</t>
+          <t>7294</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>13161</t>
+          <t>13345</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -2708,12 +2708,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3952; 8036</t>
+          <t>4284; 8572</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7458; 41030</t>
+          <t>6688; 41554</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2723,17 +2723,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6240; 15270</t>
+          <t>6083; 15208</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5345; 10080</t>
+          <t>5239; 10129</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28045; 55504</t>
+          <t>27803; 56746</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -2743,17 +2743,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8199; 17566</t>
+          <t>8251; 17363</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10116; 16277</t>
+          <t>10636; 16669</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>28655; 87213</t>
+          <t>28818; 86572</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>16169; 29307</t>
+          <t>15635; 29136</t>
         </is>
       </c>
     </row>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8678</t>
+          <t>7430</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13178</t>
+          <t>13573</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>21856</t>
+          <t>21003</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -2916,12 +2916,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>6268; 11483</t>
+          <t>5298; 10051</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>13387; 29401</t>
+          <t>13115; 30174</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2931,17 +2931,17 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5257; 15895</t>
+          <t>4852; 14623</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>10639; 16427</t>
+          <t>10931; 17083</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>39496; 58549</t>
+          <t>39648; 58667</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -2951,17 +2951,17 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>19239; 34172</t>
+          <t>19106; 34347</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>18235; 26013</t>
+          <t>17474; 25063</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>55761; 81501</t>
+          <t>56352; 80823</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>25652; 44566</t>
+          <t>25466; 44021</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>7543</t>
+          <t>8978</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>15210</t>
+          <t>17000</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>22753</t>
+          <t>25978</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
@@ -3124,12 +3124,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5631; 10030</t>
+          <t>6732; 11443</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>11421; 23835</t>
+          <t>11466; 23477</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -3139,17 +3139,17 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4277; 15250</t>
+          <t>4412; 14274</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>12626; 18392</t>
+          <t>13877; 20435</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>13508; 76692</t>
+          <t>11036; 78219</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -3159,17 +3159,17 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>14145; 26027</t>
+          <t>14164; 26068</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>19134; 26520</t>
+          <t>22287; 30149</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>25159; 85942</t>
+          <t>21137; 87039</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>20800; 36753</t>
+          <t>20907; 36596</t>
         </is>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>16524</t>
+          <t>15126</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>40848</t>
+          <t>39507</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>57372</t>
+          <t>54633</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
@@ -3332,12 +3332,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>13515; 20187</t>
+          <t>12172; 18247</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>15143; 28023</t>
+          <t>14690; 28367</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -3347,17 +3347,17 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>9052; 18834</t>
+          <t>8889; 18620</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>36622; 45600</t>
+          <t>35049; 44185</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>48611; 68304</t>
+          <t>48958; 69308</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -3367,17 +3367,17 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>32689; 48566</t>
+          <t>32842; 48883</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>51112; 63004</t>
+          <t>49196; 60462</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>66931; 90699</t>
+          <t>67842; 90933</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>43447; 63237</t>
+          <t>44277; 63283</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>40075</t>
+          <t>39511</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>80875</t>
+          <t>81418</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>120950</t>
+          <t>120930</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
@@ -3540,12 +3540,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>35069; 45637</t>
+          <t>34726; 45037</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>61522; 117628</t>
+          <t>62953; 118656</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -3555,17 +3555,17 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>46553; 68541</t>
+          <t>45349; 68340</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>73901; 88670</t>
+          <t>74968; 89543</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>151738; 248858</t>
+          <t>146355; 242874</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -3575,17 +3575,17 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>97974; 129208</t>
+          <t>97693; 129530</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>111698; 129766</t>
+          <t>111446; 130345</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>247040; 354117</t>
+          <t>237800; 349051</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>151243; 187615</t>
+          <t>150702; 190211</t>
         </is>
       </c>
     </row>
